--- a/GoogleMapsRoutesBot/resources/routes.xlsx
+++ b/GoogleMapsRoutesBot/resources/routes.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BotCity\workspace\BotRepository\bot-google-maps-routes\GoogleMapsRoutesBot\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB12AFC7-75CD-463E-8F36-8472BB6F8DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Source address</t>
   </si>
@@ -37,16 +43,10 @@
     <t>Shenandoah National Park, Virginia</t>
   </si>
   <si>
-    <t xml:space="preserve">Chiang Mai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salerno </t>
-  </si>
-  <si>
-    <t>Chicago, Illinois, USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blisland </t>
+    <t>Chiang Mai </t>
+  </si>
+  <si>
+    <t>Blisland </t>
   </si>
   <si>
     <t>Great Smoky Mountains National Park,  North Carolina</t>
@@ -55,53 +55,17 @@
     <t>Doi Suthep</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorrento </t>
-  </si>
-  <si>
-    <t>Santa Monica, California, USA</t>
-  </si>
-  <si>
     <t>Bicycle</t>
   </si>
   <si>
     <t>Car</t>
-  </si>
-  <si>
-    <t>Routes-GoogleMaps/Route_0.png</t>
-  </si>
-  <si>
-    <t>Routes-GoogleMaps/Route_1.png</t>
-  </si>
-  <si>
-    <t>Routes-GoogleMaps/Route_2.png</t>
-  </si>
-  <si>
-    <t>Routes-GoogleMaps/Route_3.png</t>
-  </si>
-  <si>
-    <t>Routes-GoogleMaps/Route_4.png</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Padstow,+United+Kingdom/Blisland,+Bodmin+PL30+4JA,+UK/@50.5195569,-4.8822153,12z/am=t/data=!4m14!4m13!1m5!1m1!1s0x486b0a457c19dbdf:0x55e84f4c7425cde1!2m2!1d-4.939017!2d50.542062!1m5!1m1!1s0x486b793211bb46c1:0x4be03c3b23222390!2m2!1d-4.682539!2d50.527892!3e1?hl=en</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Shenandoah+National+Park,+Virginia,+United+States/Great+Smoky+Mountains+National+Park,+United+States/@37.0046702,-82.1243788,8z/am=t/data=!4m14!4m13!1m5!1m1!1s0x89b461178afc2611:0xe6177964658c8831!2m2!1d-78.4534573!2d38.4754706!1m5!1m1!1s0x885e986b88fb1815:0x3c926fc1a7752461!2m2!1d-83.5531537!2d35.6130503!3e0?hl=en</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Chiang+Mai,+Mueang+Chiang+Mai+District,+Chiang+Mai,+Thailand/Wat+Phra+That+Doi+Suthep,+Ratchaworawihan,+9+%E0%B8%AB%E0%B8%A1%E0%B8%B9%E0%B9%88%E0%B8%97%E0%B8%B5%E0%B9%88+9+Mueang+Chiang+Mai+District,+Chiang+Mai+50200,+Thailand/@18.8029566,98.9350141,14z/am=t/data=!4m13!4m12!1m5!1m1!1s0x30da3a7e90bb6f5d:0x98d46270a59b4367!2m2!1d98.9853008!2d18.7883439!1m5!1m1!1s0x30da39b5dff1ddb5:0x9d864c5caec57e21!2m2!1d98.9216337!2d18.8049889?hl=en</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Salerno,+Province+of+Salerno,+Italy/Sorrento,+80067+Metropolitan+City+of+Naples,+Italy/@40.6853395,14.5019077,12z/am=t/data=!4m14!4m13!1m5!1m1!1s0x133bc25734bd3089:0x15a49713da0374a0!2m2!1d14.7680961!2d40.6824408!1m5!1m1!1s0x133b99536dbf5b61:0x2644eb57abc0ce40!2m2!1d14.3757985!2d40.6262925!3e0?hl=en</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/dir/Chicago,+Illinois,+USA/Santa+Monica,+California,+USA/@37.6349256,-112.0508001,5z/am=t/data=!4m14!4m13!1m5!1m1!1s0x880e2c3cd0f4cbed:0xafe0a6ad09c0c000!2m2!1d-87.6297982!2d41.8781136!1m5!1m1!1s0x80c2a4cec2910019:0xb4170ab5ff23f5ab!2m2!1d-118.4911912!2d34.0194543!3e0?hl=en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,16 +136,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -223,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +279,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,14 +472,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,96 +505,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>